--- a/docs/NuevaPantalla.xlsx
+++ b/docs/NuevaPantalla.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsanz/CloudStation/Dev/aquarium_care_by_arduino/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04D41D9-F746-4F45-88C2-E88FB3EFDA18}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A13EAF-6400-564F-8A79-DB5C41D1822B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="14480" windowHeight="15120" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1780" yWindow="460" windowWidth="24820" windowHeight="19640" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lumens" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,17 @@
     <sheet name="Arduino" sheetId="4" r:id="rId4"/>
     <sheet name="Screens" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021" iterateDelta="1E-4"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">Design!$C$4:$V$20</definedName>
+  </definedNames>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -2526,8 +2535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AR42"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5422,7 +5431,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
@@ -5778,7 +5787,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
@@ -6669,16 +6678,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="A34:Q34"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A6:Q6"/>
     <mergeCell ref="A14:Q14"/>
     <mergeCell ref="A18:Q18"/>
     <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="A34:Q34"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/docs/NuevaPantalla.xlsx
+++ b/docs/NuevaPantalla.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsanz/CloudStation/Dev/aquarium_care_by_arduino/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38A13EAF-6400-564F-8A79-DB5C41D1822B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152898E7-C1E1-0D47-8E69-F36093C8D8C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1780" yWindow="460" windowWidth="24820" windowHeight="19640" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2536,7 +2536,7 @@
   <dimension ref="A1:AR42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:Z2"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3919,58 +3919,58 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I17">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K17">
         <v>1</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N17">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O17">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="P17">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="Q17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U17">
+        <v>1</v>
+      </c>
+      <c r="V17">
         <v>2</v>
-      </c>
-      <c r="V17">
-        <v>1</v>
       </c>
       <c r="X17" s="29">
         <f t="shared" si="5"/>
@@ -4022,46 +4022,46 @@
     </row>
     <row r="18" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C18">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
         <v>4</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>3</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
       <c r="J18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
         <v>3</v>
       </c>
-      <c r="M18">
-        <v>2</v>
-      </c>
       <c r="N18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q18">
         <v>3</v>
@@ -4070,16 +4070,16 @@
         <v>4</v>
       </c>
       <c r="S18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T18">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="U18">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="V18">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="X18" s="29">
         <f t="shared" si="5"/>
@@ -4131,16 +4131,16 @@
     </row>
     <row r="19" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C19">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G19">
         <v>5</v>
@@ -4149,46 +4149,46 @@
         <v>6</v>
       </c>
       <c r="I19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J19">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K19">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M19">
         <v>5</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O19">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
         <v>6</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>5</v>
       </c>
-      <c r="S19">
-        <v>4</v>
-      </c>
       <c r="T19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="U19">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="X19" s="29">
         <f t="shared" si="5"/>
@@ -4240,58 +4240,58 @@
     </row>
     <row r="20" spans="2:43" x14ac:dyDescent="0.2">
       <c r="C20">
+        <v>7</v>
+      </c>
+      <c r="D20">
         <v>8</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>7</v>
       </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
       <c r="F20">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J20">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M20">
+        <v>7</v>
+      </c>
+      <c r="N20">
         <v>8</v>
       </c>
-      <c r="N20">
-        <v>6</v>
-      </c>
       <c r="O20">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="P20">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="R20">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="S20">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="T20">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U20">
         <v>7</v>
@@ -6678,16 +6678,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:Q2"/>
+    <mergeCell ref="A6:Q6"/>
+    <mergeCell ref="A14:Q14"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="A22:Q22"/>
     <mergeCell ref="A26:Q26"/>
     <mergeCell ref="A10:Q10"/>
     <mergeCell ref="A38:Q38"/>
     <mergeCell ref="A30:Q30"/>
     <mergeCell ref="A34:Q34"/>
-    <mergeCell ref="A2:Q2"/>
-    <mergeCell ref="A6:Q6"/>
-    <mergeCell ref="A14:Q14"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="A22:Q22"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/docs/NuevaPantalla.xlsx
+++ b/docs/NuevaPantalla.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vsanz/CloudStation/Dev/aquarium_care_by_arduino/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152898E7-C1E1-0D47-8E69-F36093C8D8C4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE14B06-4257-A444-BED9-AA4C92AC3702}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="460" windowWidth="24820" windowHeight="19640" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="24820" windowHeight="17540" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lumens" sheetId="1" r:id="rId1"/>
     <sheet name="Calculus" sheetId="2" r:id="rId2"/>
     <sheet name="Design" sheetId="3" r:id="rId3"/>
-    <sheet name="Arduino" sheetId="4" r:id="rId4"/>
-    <sheet name="Screens" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="Arduino" sheetId="4" r:id="rId5"/>
+    <sheet name="Screens" sheetId="5" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Design!$C$4:$V$20</definedName>
@@ -27,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -64,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="170">
   <si>
     <t xml:space="preserve">Altura Acuario en centimetros </t>
   </si>
@@ -532,6 +535,48 @@
   </si>
   <si>
     <t>Implented til here</t>
+  </si>
+  <si>
+    <t>W/litro</t>
+  </si>
+  <si>
+    <t>Total Watios</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Medio</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Azul (440-460nm)</t>
+  </si>
+  <si>
+    <t>Rojo (650-670nm)</t>
+  </si>
+  <si>
+    <t>Blanco (6500k)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>total leds</t>
+  </si>
+  <si>
+    <t>% litros reales</t>
+  </si>
+  <si>
+    <t>W / litro</t>
+  </si>
+  <si>
+    <t>Puestos</t>
+  </si>
+  <si>
+    <t>Restantes</t>
   </si>
 </sst>
 </file>
@@ -548,7 +593,7 @@
     <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* \-?_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -631,8 +676,28 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -685,6 +750,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
         <bgColor rgb="FF1E1C11"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -756,7 +827,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -877,14 +948,50 @@
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFC00000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1469,8 +1576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1841,7 +1948,7 @@
   <dimension ref="B1:N36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2535,8 +2642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AR42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AE15" sqref="AE15:AE22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5364,18 +5471,18 @@
     <mergeCell ref="X13:AG13"/>
   </mergeCells>
   <conditionalFormatting sqref="C4:V7 C16">
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="IR"/>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="R"/>
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="B"/>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="UV"/>
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="G"/>
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="IR"/>
+    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="R"/>
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="B"/>
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="UV"/>
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="G"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="IR"/>
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="R"/>
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="B"/>
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="UV"/>
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="G"/>
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="IR"/>
+    <cfRule type="containsText" dxfId="12" priority="8" operator="containsText" text="R"/>
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="B"/>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="UV"/>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="G"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:V20">
     <cfRule type="colorScale" priority="12">
@@ -5390,11 +5497,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="containsText" dxfId="4" priority="13" operator="containsText" text="IR"/>
-    <cfRule type="containsText" dxfId="3" priority="14" operator="containsText" text="R"/>
-    <cfRule type="containsText" dxfId="2" priority="15" operator="containsText" text="B"/>
-    <cfRule type="containsText" dxfId="1" priority="16" operator="containsText" text="UV"/>
-    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="G"/>
+    <cfRule type="containsText" dxfId="8" priority="13" operator="containsText" text="IR"/>
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="R"/>
+    <cfRule type="containsText" dxfId="6" priority="15" operator="containsText" text="B"/>
+    <cfRule type="containsText" dxfId="5" priority="16" operator="containsText" text="UV"/>
+    <cfRule type="containsText" dxfId="4" priority="17" operator="containsText" text="G"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="V34:V35">
     <cfRule type="colorScale" priority="18">
@@ -5436,6 +5543,683 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87992406-4E0C-3543-846B-6EC4755F717B}">
+  <dimension ref="A2:Z22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="26" width="2.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="67">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D4" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5">
+        <f>C3*C2</f>
+        <v>115.2</v>
+      </c>
+      <c r="D5">
+        <f>C5</f>
+        <v>115.2</v>
+      </c>
+      <c r="E5">
+        <f>D5</f>
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>156</v>
+      </c>
+      <c r="C6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D6">
+        <v>0.38</v>
+      </c>
+      <c r="E6">
+        <v>0.19</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>6</v>
+      </c>
+      <c r="M6">
+        <v>7</v>
+      </c>
+      <c r="N6">
+        <v>8</v>
+      </c>
+      <c r="O6">
+        <v>9</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>1</v>
+      </c>
+      <c r="R6">
+        <v>2</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>4</v>
+      </c>
+      <c r="U6">
+        <v>5</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>7</v>
+      </c>
+      <c r="X6">
+        <v>8</v>
+      </c>
+      <c r="Y6">
+        <v>9</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="20">
+        <f>C6*C5</f>
+        <v>65.664000000000001</v>
+      </c>
+      <c r="D7" s="20">
+        <f>D6*D5</f>
+        <v>43.776000000000003</v>
+      </c>
+      <c r="E7" s="20">
+        <f>E6*E5</f>
+        <v>21.888000000000002</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" t="s">
+        <v>55</v>
+      </c>
+      <c r="M7" t="s">
+        <v>56</v>
+      </c>
+      <c r="N7" t="s">
+        <v>55</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>57</v>
+      </c>
+      <c r="R7" t="s">
+        <v>55</v>
+      </c>
+      <c r="S7" t="s">
+        <v>56</v>
+      </c>
+      <c r="T7" t="s">
+        <v>55</v>
+      </c>
+      <c r="U7" t="s">
+        <v>54</v>
+      </c>
+      <c r="V7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W7" t="s">
+        <v>56</v>
+      </c>
+      <c r="X7" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
+      <c r="L8" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O8" t="s">
+        <v>55</v>
+      </c>
+      <c r="P8" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>55</v>
+      </c>
+      <c r="R8" t="s">
+        <v>56</v>
+      </c>
+      <c r="S8" t="s">
+        <v>55</v>
+      </c>
+      <c r="T8" t="s">
+        <v>56</v>
+      </c>
+      <c r="U8" t="s">
+        <v>55</v>
+      </c>
+      <c r="V8" t="s">
+        <v>56</v>
+      </c>
+      <c r="W8" t="s">
+        <v>55</v>
+      </c>
+      <c r="X8" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9">
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+      <c r="M9" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" t="s">
+        <v>55</v>
+      </c>
+      <c r="O9" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>56</v>
+      </c>
+      <c r="R9" t="s">
+        <v>55</v>
+      </c>
+      <c r="S9" t="s">
+        <v>59</v>
+      </c>
+      <c r="T9" t="s">
+        <v>55</v>
+      </c>
+      <c r="U9" t="s">
+        <v>56</v>
+      </c>
+      <c r="V9" t="s">
+        <v>55</v>
+      </c>
+      <c r="W9" t="s">
+        <v>57</v>
+      </c>
+      <c r="X9" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="65">
+        <f>C9/C5</f>
+        <v>0.69444444444444442</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10" t="s">
+        <v>57</v>
+      </c>
+      <c r="H10" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10" t="s">
+        <v>54</v>
+      </c>
+      <c r="K10" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>59</v>
+      </c>
+      <c r="O10" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>55</v>
+      </c>
+      <c r="R10" t="s">
+        <v>54</v>
+      </c>
+      <c r="S10" t="s">
+        <v>55</v>
+      </c>
+      <c r="T10" t="s">
+        <v>56</v>
+      </c>
+      <c r="U10" t="s">
+        <v>55</v>
+      </c>
+      <c r="V10" t="s">
+        <v>57</v>
+      </c>
+      <c r="W10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>56</v>
+      </c>
+      <c r="R11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S11" t="s">
+        <v>56</v>
+      </c>
+      <c r="T11" t="s">
+        <v>55</v>
+      </c>
+      <c r="U11" t="s">
+        <v>57</v>
+      </c>
+      <c r="V11" t="s">
+        <v>55</v>
+      </c>
+      <c r="W11" t="s">
+        <v>56</v>
+      </c>
+      <c r="X11" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>164</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="67">
+        <v>0.09</v>
+      </c>
+      <c r="D15" s="20">
+        <f>$C$9*C15</f>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="E15">
+        <f>COUNTIF($G$7:$Z$11,"UV")</f>
+        <v>9</v>
+      </c>
+      <c r="F15" s="20">
+        <f>D15-E15</f>
+        <v>-1.8000000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="67">
+        <v>0.02</v>
+      </c>
+      <c r="D16" s="20">
+        <f>$C$9*C16</f>
+        <v>1.6</v>
+      </c>
+      <c r="E16">
+        <f>COUNTIF($G$7:$Z$11,"IR")</f>
+        <v>2</v>
+      </c>
+      <c r="F16" s="20">
+        <f t="shared" ref="F16:F20" si="0">D16-E16</f>
+        <v>-0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="67">
+        <v>0.48</v>
+      </c>
+      <c r="D17" s="20">
+        <f>($C$9*C17)-D20</f>
+        <v>36.4</v>
+      </c>
+      <c r="E17">
+        <f>COUNTIF($G$7:$Z$11,"W")</f>
+        <v>45</v>
+      </c>
+      <c r="F17" s="20">
+        <f t="shared" si="0"/>
+        <v>-8.6000000000000014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="C18" s="67">
+        <v>0.155</v>
+      </c>
+      <c r="D18" s="20">
+        <f>$C$9*C18</f>
+        <v>12.4</v>
+      </c>
+      <c r="E18">
+        <f>COUNTIF($G$7:$Z$11,"B")</f>
+        <v>16</v>
+      </c>
+      <c r="F18" s="20">
+        <f t="shared" si="0"/>
+        <v>-3.5999999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="67">
+        <v>0.255</v>
+      </c>
+      <c r="D19" s="20">
+        <f>$C$9*C19</f>
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E19">
+        <f>COUNTIF($G$7:$Z$11,"R")</f>
+        <v>26</v>
+      </c>
+      <c r="F19" s="20">
+        <f>D19-E19</f>
+        <v>-5.6000000000000014</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="67">
+        <v>0.02</v>
+      </c>
+      <c r="D20" s="20">
+        <v>2</v>
+      </c>
+      <c r="E20">
+        <f>COUNTIF($G$7:$Z$11,"G")</f>
+        <v>2</v>
+      </c>
+      <c r="F20" s="20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B21" s="68"/>
+      <c r="C21" s="67"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C22" s="67">
+        <f>SUM(C15:C21)</f>
+        <v>1.02</v>
+      </c>
+      <c r="D22" s="20">
+        <f>SUM(D15:D21)</f>
+        <v>80</v>
+      </c>
+      <c r="E22" s="20">
+        <f>SUM(E15:E21)</f>
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="G7:Z10 G11:N11 P11:Z11">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+      <formula>"R"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>$A$15</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G7:Z11">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$A$16</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:G34"/>
   <sheetViews>
@@ -5783,7 +6567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A2:R40"/>
   <sheetViews>
@@ -6678,16 +7462,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A26:Q26"/>
+    <mergeCell ref="A10:Q10"/>
+    <mergeCell ref="A38:Q38"/>
+    <mergeCell ref="A30:Q30"/>
+    <mergeCell ref="A34:Q34"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A6:Q6"/>
     <mergeCell ref="A14:Q14"/>
     <mergeCell ref="A18:Q18"/>
     <mergeCell ref="A22:Q22"/>
-    <mergeCell ref="A26:Q26"/>
-    <mergeCell ref="A10:Q10"/>
-    <mergeCell ref="A38:Q38"/>
-    <mergeCell ref="A30:Q30"/>
-    <mergeCell ref="A34:Q34"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
